--- a/resultsTables.xlsx
+++ b/resultsTables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Table4" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="114">
   <si>
     <t xml:space="preserve">filename</t>
   </si>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">#2</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve">literal pruning</t>
   </si>
   <si>
     <t xml:space="preserve">#3</t>
@@ -282,6 +282,12 @@
   </si>
   <si>
     <t xml:space="preserve">IDS+QCBA #6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/7/1</t>
   </si>
   <si>
     <t xml:space="preserve">13/8/1</t>
@@ -452,7 +458,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -474,6 +480,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -560,11 +570,11 @@
   </sheetPr>
   <dimension ref="A2:I42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.35"/>
   </cols>
@@ -612,7 +622,7 @@
       </c>
       <c r="D3" s="1" t="str">
         <f aca="false">VLOOKUP(Table4!D2,Table4!$A$25:$C$32,3, )</f>
-        <v> </v>
+        <v>literal pruning</v>
       </c>
       <c r="E3" s="1" t="str">
         <f aca="false">VLOOKUP(Table4!E2,Table4!$A$25:$C$32,3, )</f>
@@ -1271,7 +1281,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1290,7 +1300,7 @@
       <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
@@ -1522,7 +1532,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1535,161 +1545,242 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="18.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.37"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0.63</v>
+        <v>43</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>87</v>
+        <v>63</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0.00124</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0.00198</v>
+        <v>67</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>16.6</v>
+        <v>72</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>4.2</v>
+        <v>0.00087</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>3.4</v>
+        <v>0.00124</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.00198</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.00134</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>3.6</v>
+        <v>16.6</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1.7</v>
+        <v>4.6</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>3.7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>60.1</v>
+        <v>3.6</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>6.7</v>
+        <v>1.7</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>21.1</v>
+        <v>60.1</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>1.3</v>
+        <v>12.2</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1.5</v>
+        <v>9</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>8.9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="B9" s="0" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C10" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D10" s="0" t="n">
         <v>0.06</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="E10" s="0" t="n">
         <v>0.07</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="F10" s="0" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>89</v>
-      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H20" s="5"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I21" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1708,29 +1799,29 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1773,12 +1864,12 @@
         <v>37803</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1804,85 +1895,85 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="7" t="n">
         <v>0.1088</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="7" t="n">
         <v>0.2828</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="7" t="n">
         <v>0.2425</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="6" t="n">
+      <c r="H6" s="7" t="n">
         <v>0.8532</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="7" t="n">
         <v>0.3905</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="7" t="n">
         <v>0.6511</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="7" t="n">
         <v>0.6818</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="6" t="n">
+      <c r="H7" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="7" t="n">
         <v>0.0231</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="7" t="n">
         <v>0.0215</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="6" t="n">
+      <c r="H8" s="7" t="n">
         <v>0.578</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1893,7 +1984,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1908,35 +1999,35 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1961,7 +2052,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.05248</v>
@@ -1981,7 +2072,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1991,12 +2082,12 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2009,7 +2100,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/resultsTables.xlsx
+++ b/resultsTables.xlsx
@@ -5,15 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Table4" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Table5" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Table6" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Table5" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Table6" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Table7" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Table8" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Table9" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Table10" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Table11" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Table11!$A$1:$N$24</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="165">
   <si>
     <t xml:space="preserve">filename</t>
   </si>
@@ -248,54 +252,42 @@
     <t xml:space="preserve">na</t>
   </si>
   <si>
-    <t xml:space="preserve">0.03054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24756</t>
+    <t xml:space="preserve">avg conditions / rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg conditions / model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: SBRL_results/stats.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computed by: evalSBRL_QCBA.R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only IDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDS+QCBA #5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDS+QCBA #6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/7/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13/8/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/9/1</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">0.75082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avg conditions / rule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avg conditions / model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source: SBRL_results/stats.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Computed by: evalSBRL_QCBA.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">only IDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDS+QCBA #5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDS+QCBA #6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/7/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13/8/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/9/1</t>
-  </si>
-  <si>
     <t xml:space="preserve">avg build time normalized</t>
   </si>
   <si>
@@ -305,40 +297,82 @@
     <t xml:space="preserve">Computed by: evalIDS_QCBA.R</t>
   </si>
   <si>
-    <t xml:space="preserve">CBA(dc)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CBA(dc+dr)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CBA(dc)+QCBA#5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBRL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBRL+QCBA#5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDS+QCBA#5</t>
+    <t xml:space="preserve">CMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMAR+QCBA #5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPAR+QCBA #5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOIL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOIL2+QCBA #5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRM+QCBA #5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/2/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/5/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/5/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/4/4</t>
   </si>
   <si>
     <t xml:space="preserve">p-value (accuracy difference)</t>
   </si>
   <si>
-    <t xml:space="preserve">decrease in model size (avg)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decrease in model size (max)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decrease in model size (min)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source: QCBA_Postprocessing_results/stats.csv</t>
+    <t xml:space="preserve">median build time norm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean build time [s]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5 +/- 2.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">183.6 +/- 76.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5 +/- 0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.5 +/- 31.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 +/- 2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.2 +/- 24.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4 +/- 0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.3 +/- 28.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean build time norm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg conditions / model (macro)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg conditions / model (micro)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of wins for QCBA#5 run after CBA</t>
@@ -366,20 +400,144 @@
   </si>
   <si>
     <t xml:space="preserve">Note: some rows and columns were excluded.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">198-numericOnly-T-Pcba-A-mci=-1-qcba.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMAR_results/CMAR_QCBA-default_mci-1-noPruning.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPAR_results/CPAR_QCBA-default_mci-1-noPruning.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDSQCBA_R_noPruning_ATTPRUNING_TRUE.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOIL2_results/FOIL2_QCBA-default_mci-1-noPruning.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRM_results/PRM_QCBA-default_mci-1-noPruning.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBRLQCBA-noPruning-Long.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FURIA-accuracy_missing_omitted.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../CORELS_results/CORELS.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J48-accuracy.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PART-accuracy.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIPPER-accuracy.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qcbawins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dataset ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">australian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">credit-g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">letter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diabetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hepatitis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sonar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lymph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vowel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">breast-w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hypothyroid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heart-statlog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ionosphere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anneal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spambase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">colic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">credit-a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">accdifferencebydataset.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATASET ID ADDED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLUMNS WERE REORDERED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-    <numFmt numFmtId="166" formatCode="@"/>
-    <numFmt numFmtId="167" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="168" formatCode="0.00%"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="0"/>
+    <numFmt numFmtId="168" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="169" formatCode="0%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -409,6 +567,21 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -458,8 +631,48 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -467,27 +680,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -500,6 +709,23 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF3D3D3D"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -563,720 +789,723 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A2:I42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.35"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="str">
-        <f aca="false">VLOOKUP(Table4!B2,Table4!$A$25:$C$32,3, )</f>
+      <c r="B3" s="2" t="str">
+        <f aca="false">VLOOKUP(Table5!B2,Table5!$A$25:$C$32,3, )</f>
         <v>cba baseline </v>
       </c>
-      <c r="C3" s="1" t="str">
-        <f aca="false">VLOOKUP(Table4!C2,Table4!$A$25:$C$32,3, )</f>
+      <c r="C3" s="2" t="str">
+        <f aca="false">VLOOKUP(Table5!C2,Table5!$A$25:$C$32,3, )</f>
         <v>refit</v>
       </c>
-      <c r="D3" s="1" t="str">
-        <f aca="false">VLOOKUP(Table4!D2,Table4!$A$25:$C$32,3, )</f>
+      <c r="D3" s="2" t="str">
+        <f aca="false">VLOOKUP(Table5!D2,Table5!$A$25:$C$32,3, )</f>
         <v>literal pruning</v>
       </c>
-      <c r="E3" s="1" t="str">
-        <f aca="false">VLOOKUP(Table4!E2,Table4!$A$25:$C$32,3, )</f>
+      <c r="E3" s="2" t="str">
+        <f aca="false">VLOOKUP(Table5!E2,Table5!$A$25:$C$32,3, )</f>
         <v>trimming</v>
       </c>
-      <c r="F3" s="1" t="str">
-        <f aca="false">VLOOKUP(Table4!F2,Table4!$A$25:$C$32,3, )</f>
+      <c r="F3" s="2" t="str">
+        <f aca="false">VLOOKUP(Table5!F2,Table5!$A$25:$C$32,3, )</f>
         <v>extension</v>
       </c>
-      <c r="G3" s="1" t="str">
-        <f aca="false">VLOOKUP(Table4!G2,Table4!$A$25:$C$32,3, )</f>
+      <c r="G3" s="2" t="str">
+        <f aca="false">VLOOKUP(Table5!G2,Table5!$A$25:$C$32,3, )</f>
         <v>postpruning</v>
       </c>
-      <c r="H3" s="1" t="str">
-        <f aca="false">VLOOKUP(Table4!H2,Table4!$A$25:$C$32,3, )</f>
+      <c r="H3" s="2" t="str">
+        <f aca="false">VLOOKUP(Table5!H2,Table5!$A$25:$C$32,3, )</f>
         <v>transaction-based default rule overlap pruning</v>
       </c>
-      <c r="I3" s="1" t="str">
-        <f aca="false">VLOOKUP(Table4!I2,Table4!$A$25:$C$32,3, )</f>
+      <c r="I3" s="2" t="str">
+        <f aca="false">VLOOKUP(Table5!I2,Table5!$A$25:$C$32,3, )</f>
         <v>range=based default rule overlap pruning</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="str">
-        <f aca="false">VLOOKUP(Table4!B2,Table4!$A$25:$C$32,2, )</f>
+      <c r="B4" s="1" t="str">
+        <f aca="false">VLOOKUP(Table5!B2,Table5!$A$25:$C$32,2, )</f>
         <v>#0</v>
       </c>
-      <c r="C4" s="0" t="str">
-        <f aca="false">VLOOKUP(Table4!C2,Table4!$A$25:$C$32,2, )</f>
+      <c r="C4" s="1" t="str">
+        <f aca="false">VLOOKUP(Table5!C2,Table5!$A$25:$C$32,2, )</f>
         <v>#1</v>
       </c>
-      <c r="D4" s="0" t="str">
-        <f aca="false">VLOOKUP(Table4!D2,Table4!$A$25:$C$32,2, )</f>
+      <c r="D4" s="1" t="str">
+        <f aca="false">VLOOKUP(Table5!D2,Table5!$A$25:$C$32,2, )</f>
         <v>#2</v>
       </c>
-      <c r="E4" s="0" t="str">
-        <f aca="false">VLOOKUP(Table4!E2,Table4!$A$25:$C$32,2, )</f>
+      <c r="E4" s="1" t="str">
+        <f aca="false">VLOOKUP(Table5!E2,Table5!$A$25:$C$32,2, )</f>
         <v>#3</v>
       </c>
-      <c r="F4" s="0" t="str">
-        <f aca="false">VLOOKUP(Table4!F2,Table4!$A$25:$C$32,2, )</f>
+      <c r="F4" s="1" t="str">
+        <f aca="false">VLOOKUP(Table5!F2,Table5!$A$25:$C$32,2, )</f>
         <v>#4</v>
       </c>
-      <c r="G4" s="0" t="str">
-        <f aca="false">VLOOKUP(Table4!G2,Table4!$A$25:$C$32,2, )</f>
+      <c r="G4" s="1" t="str">
+        <f aca="false">VLOOKUP(Table5!G2,Table5!$A$25:$C$32,2, )</f>
         <v>#5</v>
       </c>
-      <c r="H4" s="0" t="str">
-        <f aca="false">VLOOKUP(Table4!H2,Table4!$A$25:$C$32,2, )</f>
+      <c r="H4" s="1" t="str">
+        <f aca="false">VLOOKUP(Table5!H2,Table5!$A$25:$C$32,2, )</f>
         <v>#6</v>
       </c>
-      <c r="I4" s="0" t="str">
-        <f aca="false">VLOOKUP(Table4!I2,Table4!$A$25:$C$32,2, )</f>
+      <c r="I4" s="1" t="str">
+        <f aca="false">VLOOKUP(Table5!I2,Table5!$A$25:$C$32,2, )</f>
         <v>#7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>0.81</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>0.81</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>0.81</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>0.81</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <v>0.81</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="1" t="n">
         <v>0.81</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="1" t="n">
         <v>0.81</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>0.82</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>0.82</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>0.82</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>0.83</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <v>0.82</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="1" t="n">
         <v>0.82</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="1" t="n">
         <v>0.82</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="0" t="n">
+      <c r="B15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6" t="n">
         <v>0.58106</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="6" t="n">
         <v>0.58106</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="6" t="n">
         <v>0.62317</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="6" t="n">
         <v>0.81589</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="6" t="n">
         <v>0.23309</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="6" t="n">
         <v>0.07279</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="6" t="n">
         <v>0.23309</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="7" t="n">
         <v>84.2</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="7" t="n">
         <v>91.8</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="7" t="n">
         <v>91.8</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="7" t="n">
         <v>91.8</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="7" t="n">
         <v>91.8</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="7" t="n">
         <v>65.9</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="7" t="n">
         <v>47.7</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="7" t="n">
         <v>65.5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="6" t="n">
         <v>2.8</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="6" t="n">
         <v>2.8</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="6" t="n">
         <v>2.8</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="6" t="n">
         <v>2.8</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="6" t="n">
         <v>2.8</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="6" t="n">
         <v>2.8</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="6" t="n">
         <v>2.8</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17" s="6" t="n">
         <v>2.8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="7" t="n">
         <v>249.6</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="7" t="n">
         <v>274.5</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="7" t="n">
         <v>274.5</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="7" t="n">
         <v>274.5</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="7" t="n">
         <v>274.5</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="7" t="n">
         <v>195.2</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="7" t="n">
         <v>141.7</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18" s="7" t="n">
         <v>193.9</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+    <row r="19" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="0" t="n">
+      <c r="B19" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6" t="n">
         <v>0.05</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="6" t="n">
         <v>0.07</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="6" t="n">
         <v>0.07</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="6" t="n">
         <v>0.96</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="6" t="n">
         <v>1.15</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="6" t="n">
         <v>0.97</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19" s="6" t="n">
         <v>0.99</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+    <row r="20" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="6" t="n">
         <v>0.82</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="6" t="n">
         <v>0.82</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="6" t="n">
         <v>0.82</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="6" t="n">
         <v>0.83</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="6" t="n">
         <v>0.82</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20" s="6" t="n">
         <v>0.82</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="6" t="n">
         <v>0.8</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20" s="6" t="n">
         <v>0.82</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="A24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="A25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1290,244 +1519,237 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="9" t="n">
+        <v>0.03054</v>
+      </c>
+      <c r="D4" s="9" t="n">
+        <v>0.24756</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="9" t="n">
+        <v>0.75082</v>
+      </c>
+      <c r="G4" s="9" t="n">
+        <v>0.715</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="B6" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="B7" s="1" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="4" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1541,237 +1763,245 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="18.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="18.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="20.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="G4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="C5" s="1" t="n">
+        <v>0.00087</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.00124</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.00134</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.00198</v>
+      </c>
+      <c r="G5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="B10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="G10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="0" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0.00087</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0.00124</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0.00198</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0.00134</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>60.1</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I21" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1789,196 +2019,378 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:H12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>99</v>
+      <c r="A2" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0.83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.81</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0.81</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0.81</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0.81</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0.81</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>0.63</v>
+        <v>67</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>37696</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>38298</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>37803</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>88</v>
+        <v>101</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.007</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0</v>
+        <v>489.2</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>1</v>
+        <v>112.7</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.24277</v>
+        <v>88.5</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>0</v>
+        <v>61.9</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>0.75082</v>
+        <v>107.1</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0</v>
+        <v>76.9</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.00124</v>
+        <v>80.1</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>61.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7" t="n">
-        <v>0.1088</v>
-      </c>
-      <c r="D6" s="7" t="n">
-        <v>0.2828</v>
+        <v>3</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7" t="n">
-        <v>0.2425</v>
+        <v>2</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>2.5</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7" t="n">
-        <v>0.8532</v>
+        <v>2.3</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="7" t="n">
-        <v>0.3905</v>
-      </c>
-      <c r="D7" s="7" t="n">
-        <v>0.6511</v>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="7" t="n">
-        <v>0.6818</v>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="7" t="n">
-        <v>1</v>
+      <c r="H7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7" t="n">
-        <v>0.0231</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7" t="n">
-        <v>0.0215</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7" t="n">
-        <v>0.578</v>
+      <c r="B10" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>28.24</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>16.95</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>112.99</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>56</v>
+        <v>113</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1462</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>302.6</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>178.9</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>126.7</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>263.5</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>176.7</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>161.4</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>125.4</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1336.2</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>280.8</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>180.9</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>301.9</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>209.8</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>229.8</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>179.8</v>
       </c>
     </row>
   </sheetData>
@@ -1993,7 +2405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2005,97 +2417,97 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>105</v>
+      <c r="A1" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>110</v>
+      <c r="B2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="8" t="n">
         <v>39814</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="8" t="n">
         <v>41123</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="8" t="n">
         <v>40393</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="8" t="n">
         <v>41034</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="8" t="n">
         <v>39025</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="0" t="n">
+      <c r="A4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="1" t="n">
         <v>0.05248</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.39989</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.51199</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>0.11789</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>0.21685</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>111</v>
+      <c r="A8" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>112</v>
+      <c r="A10" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>113</v>
+      <c r="A12" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2106,4 +2518,1116 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:T29"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O13" activeCellId="0" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.38"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="9" style="12" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2" s="15" t="n">
+        <v>12</v>
+      </c>
+      <c r="J2" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K2" s="15" t="n">
+        <v>9</v>
+      </c>
+      <c r="L2" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="M2" s="15" t="n">
+        <v>11</v>
+      </c>
+      <c r="O2" s="0"/>
+      <c r="P2" s="0"/>
+      <c r="Q2" s="0"/>
+      <c r="R2" s="0"/>
+      <c r="S2" s="0"/>
+      <c r="T2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="16" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="16" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="16" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="16" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="16" t="n">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="16" t="n">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="16" t="n">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="16" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="16" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="16" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="16" t="n">
+        <v>0.583333333333333</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="16" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="16" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="16" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" s="16" t="n">
+        <v>0.416666666666667</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="16" t="n">
+        <v>0.416666666666667</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="16" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K21" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="16" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="16" t="n">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="16" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="16" t="n">
+        <v>0.166666666666667</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:N24"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/resultsTables.xlsx
+++ b/resultsTables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Table5" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
     <sheet name="Table11" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Table11!$A$1:$N$24</definedName>
+    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Table11!$A$1:$Q$25</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="179">
   <si>
     <t xml:space="preserve">filename</t>
   </si>
@@ -90,7 +90,7 @@
     <t xml:space="preserve">+ def ov. pruning - transaction</t>
   </si>
   <si>
-    <t xml:space="preserve">accuracy</t>
+    <t xml:space="preserve">accuracy (macro average)</t>
   </si>
   <si>
     <t xml:space="preserve">auc (avg for 11 binary class datasets)</t>
@@ -111,7 +111,7 @@
     <t xml:space="preserve">10/9/3</t>
   </si>
   <si>
-    <t xml:space="preserve">6/7/9</t>
+    <t xml:space="preserve">7/6/9</t>
   </si>
   <si>
     <t xml:space="preserve">P-value (Wilcoxon)</t>
@@ -219,9 +219,6 @@
     <t xml:space="preserve">SBRL+QCBA (long) #6</t>
   </si>
   <si>
-    <t xml:space="preserve">accuracy (macro average)</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.8</t>
   </si>
   <si>
@@ -444,18 +441,42 @@
     <t xml:space="preserve">qcbawins</t>
   </si>
   <si>
-    <t xml:space="preserve">dataset ID</t>
+    <t xml:space="preserve">best acc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">best algo short</t>
+  </si>
+  <si>
+    <t xml:space="preserve">best algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">algorithm ID</t>
   </si>
   <si>
     <t xml:space="preserve">labor</t>
   </si>
   <si>
+    <t xml:space="preserve">QCBA(CPAR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../CPAR_results/CPAR_QCBA-default_mci-1-noPruning.csv</t>
+  </si>
+  <si>
     <t xml:space="preserve">australian</t>
   </si>
   <si>
+    <t xml:space="preserve">../CMAR_results/CMAR-default_mci-1-noPruning.csv</t>
+  </si>
+  <si>
     <t xml:space="preserve">credit-g</t>
   </si>
   <si>
+    <t xml:space="preserve">CBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117-noExtend-D-mci=-1-cba.csv</t>
+  </si>
+  <si>
     <t xml:space="preserve">letter</t>
   </si>
   <si>
@@ -465,6 +486,9 @@
     <t xml:space="preserve">diabetes</t>
   </si>
   <si>
+    <t xml:space="preserve">QCBA(CBA)</t>
+  </si>
+  <si>
     <t xml:space="preserve">hepatitis</t>
   </si>
   <si>
@@ -474,6 +498,12 @@
     <t xml:space="preserve">iris</t>
   </si>
   <si>
+    <t xml:space="preserve">QCBA(CMAR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../CMAR_results/CMAR_QCBA-default_mci-1-noPruning.csv</t>
+  </si>
+  <si>
     <t xml:space="preserve">lymph</t>
   </si>
   <si>
@@ -486,6 +516,12 @@
     <t xml:space="preserve">autos</t>
   </si>
   <si>
+    <t xml:space="preserve">QCBA(FOIL2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../FOIL2_results/FOIL2_QCBA-default_mci-1-noPruning.csv</t>
+  </si>
+  <si>
     <t xml:space="preserve">glass</t>
   </si>
   <si>
@@ -495,9 +531,15 @@
     <t xml:space="preserve">heart-statlog</t>
   </si>
   <si>
+    <t xml:space="preserve">../FOIL2_results/FOIL2-default_mci-1-noPruning.csv</t>
+  </si>
+  <si>
     <t xml:space="preserve">ionosphere</t>
   </si>
   <si>
+    <t xml:space="preserve">../PRM_results/PRM-default_mci-1-noPruning.csv</t>
+  </si>
+  <si>
     <t xml:space="preserve">anneal</t>
   </si>
   <si>
@@ -519,23 +561,24 @@
     <t xml:space="preserve">accdifferencebydataset.csv</t>
   </si>
   <si>
-    <t xml:space="preserve">DATASET ID ADDED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLUMNS WERE REORDERED</t>
+    <t xml:space="preserve">row “dataset id” manually added</t>
+  </si>
+  <si>
+    <t xml:space="preserve">col “best algo short” manually added base on “best algo”</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="0"/>
-    <numFmt numFmtId="168" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="169" formatCode="0%"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="167" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="168" formatCode="0.00"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0%"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -631,7 +674,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -640,7 +683,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -648,15 +691,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -664,11 +703,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -676,11 +715,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -688,15 +727,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -801,7 +852,7 @@
   <dimension ref="A2:I42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -844,7 +895,7 @@
       </c>
       <c r="B3" s="2" t="str">
         <f aca="false">VLOOKUP(Table5!B2,Table5!$A$25:$C$32,3, )</f>
-        <v>cba baseline </v>
+        <v>cba baseline</v>
       </c>
       <c r="C3" s="2" t="str">
         <f aca="false">VLOOKUP(Table5!C2,Table5!$A$25:$C$32,3, )</f>
@@ -1116,31 +1167,31 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="0" t="n">
         <v>0.81</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="0" t="n">
         <v>0.81</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="0" t="n">
         <v>0.81</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="0" t="n">
         <v>0.81</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="0" t="n">
         <v>0.81</v>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="0" t="n">
         <v>0.81</v>
       </c>
-      <c r="H12" s="1" t="n">
+      <c r="H12" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="I12" s="1" t="n">
+      <c r="I12" s="0" t="n">
         <v>0.81</v>
       </c>
     </row>
@@ -1148,28 +1199,28 @@
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="0" t="n">
         <v>0.82</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="0" t="n">
         <v>0.82</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="0" t="n">
         <v>0.82</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="0" t="n">
         <v>0.83</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13" s="0" t="n">
         <v>0.82</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="0" t="n">
         <v>0.82</v>
       </c>
-      <c r="H13" s="1" t="n">
+      <c r="H13" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="I13" s="1" t="n">
+      <c r="I13" s="0" t="n">
         <v>0.82</v>
       </c>
     </row>
@@ -1207,54 +1258,54 @@
       <c r="B15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C15" s="6" t="n">
-        <v>0.58106</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>0.58106</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>0.62317</v>
-      </c>
-      <c r="F15" s="6" t="n">
-        <v>0.81589</v>
-      </c>
-      <c r="G15" s="6" t="n">
-        <v>0.23309</v>
-      </c>
-      <c r="H15" s="6" t="n">
-        <v>0.07279</v>
-      </c>
-      <c r="I15" s="6" t="n">
-        <v>0.23309</v>
+      <c r="C15" s="0" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.816</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.087</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0.233</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="7" t="n">
+      <c r="B16" s="0" t="n">
         <v>84.2</v>
       </c>
-      <c r="C16" s="7" t="n">
+      <c r="C16" s="0" t="n">
         <v>91.8</v>
       </c>
-      <c r="D16" s="7" t="n">
+      <c r="D16" s="0" t="n">
         <v>91.8</v>
       </c>
-      <c r="E16" s="7" t="n">
+      <c r="E16" s="0" t="n">
         <v>91.8</v>
       </c>
-      <c r="F16" s="7" t="n">
+      <c r="F16" s="0" t="n">
         <v>91.8</v>
       </c>
-      <c r="G16" s="7" t="n">
+      <c r="G16" s="0" t="n">
         <v>65.9</v>
       </c>
-      <c r="H16" s="7" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="I16" s="7" t="n">
+      <c r="H16" s="0" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="I16" s="0" t="n">
         <v>65.5</v>
       </c>
     </row>
@@ -1262,28 +1313,28 @@
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="6" t="n">
+      <c r="B17" s="0" t="n">
         <v>2.8</v>
       </c>
-      <c r="C17" s="6" t="n">
+      <c r="C17" s="0" t="n">
         <v>2.8</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="0" t="n">
         <v>2.8</v>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="E17" s="0" t="n">
         <v>2.8</v>
       </c>
-      <c r="F17" s="6" t="n">
+      <c r="F17" s="0" t="n">
         <v>2.8</v>
       </c>
-      <c r="G17" s="6" t="n">
+      <c r="G17" s="0" t="n">
         <v>2.8</v>
       </c>
-      <c r="H17" s="6" t="n">
+      <c r="H17" s="0" t="n">
         <v>2.8</v>
       </c>
-      <c r="I17" s="6" t="n">
+      <c r="I17" s="0" t="n">
         <v>2.8</v>
       </c>
     </row>
@@ -1291,87 +1342,87 @@
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="7" t="n">
-        <v>249.6</v>
-      </c>
-      <c r="C18" s="7" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="D18" s="7" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="E18" s="7" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="F18" s="7" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="G18" s="7" t="n">
-        <v>195.2</v>
-      </c>
-      <c r="H18" s="7" t="n">
-        <v>141.7</v>
-      </c>
-      <c r="I18" s="7" t="n">
-        <v>193.9</v>
+      <c r="B18" s="0" t="n">
+        <v>235.3</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>258.7</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>258.7</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>258.7</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>258.7</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>182.4</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="6" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D19" s="6" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="E19" s="6" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="F19" s="6" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="G19" s="6" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="H19" s="6" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="I19" s="6" t="n">
-        <v>0.99</v>
+      <c r="B19" s="0" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>5.2</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="6" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="C20" s="6" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="E20" s="6" t="n">
+      <c r="B20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="I20" s="0" t="n">
         <v>0.83</v>
-      </c>
-      <c r="F20" s="6" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="G20" s="6" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="H20" s="6" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I20" s="6" t="n">
-        <v>0.82</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1500,12 +1551,11 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1553,64 +1603,64 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>64</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="8" t="n">
         <v>0.03054</v>
       </c>
-      <c r="D4" s="9" t="n">
+      <c r="D4" s="8" t="n">
         <v>0.24756</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="9" t="n">
+      <c r="E4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="8" t="n">
         <v>0.75082</v>
       </c>
-      <c r="G4" s="9" t="n">
+      <c r="G4" s="8" t="n">
         <v>0.715</v>
       </c>
     </row>
@@ -1639,7 +1689,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>0.8</v>
@@ -1662,7 +1712,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>3.8</v>
@@ -1730,15 +1780,14 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1748,7 +1797,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1767,7 +1816,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
@@ -1783,24 +1832,23 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="0"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -1814,11 +1862,10 @@
       <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>0.61</v>
@@ -1835,32 +1882,30 @@
       <c r="F3" s="1" t="n">
         <v>0.63</v>
       </c>
-      <c r="G3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>85</v>
+        <v>71</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>0.00087</v>
@@ -1874,7 +1919,6 @@
       <c r="F5" s="1" t="n">
         <v>0.00198</v>
       </c>
-      <c r="G5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -1895,11 +1939,10 @@
       <c r="F6" s="1" t="n">
         <v>3.4</v>
       </c>
-      <c r="G6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>3.6</v>
@@ -1916,11 +1959,10 @@
       <c r="F7" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="G7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>60.1</v>
@@ -1937,7 +1979,6 @@
       <c r="F8" s="1" t="n">
         <v>6.7</v>
       </c>
-      <c r="G8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -1958,11 +1999,10 @@
       <c r="F9" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="G9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>1</v>
@@ -1979,18 +2019,17 @@
       <c r="F10" s="1" t="n">
         <v>0.07</v>
       </c>
-      <c r="G10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2000,7 +2039,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2025,371 +2064,371 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="0" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0.81</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>0.81</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="E3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="I3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I3" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>489.2</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>112.7</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>107.1</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>76.9</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>80.1</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0.94</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>0.007</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>489.2</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>112.7</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>107.1</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>76.9</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>80.1</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>61.5</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>2.62</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="F10" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="G10" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="H10" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="I10" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I10" s="0" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="B11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>28.24</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>16.95</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>112.99</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>28.24</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>105.5</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>16.95</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>112.99</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="B12" s="1" t="n">
+        <v>1462</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>302.6</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>178.9</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>126.7</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>263.5</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>176.7</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>161.4</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>125.4</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>1462</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>302.6</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>178.9</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>126.7</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>263.5</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>176.7</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>161.4</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>125.4</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>1336.2</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>280.8</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>249.1</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>180.9</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <v>301.9</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="1" t="n">
         <v>209.8</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="1" t="n">
         <v>229.8</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="1" t="n">
         <v>179.8</v>
       </c>
     </row>
@@ -2422,49 +2461,49 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="8" t="n">
+        <v>66</v>
+      </c>
+      <c r="B3" s="6" t="n">
         <v>39814</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="6" t="n">
         <v>41123</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="6" t="n">
         <v>40393</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="6" t="n">
         <v>41034</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="6" t="n">
         <v>39025</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>0.05248</v>
@@ -2484,7 +2523,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2494,20 +2533,20 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2525,1102 +2564,1326 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O13" activeCellId="0" sqref="O13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S26" activeCellId="0" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.38"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="9" style="12" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.38"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="9" style="10" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="12" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="2" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
+      <c r="P1" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="14" t="n">
+      <c r="Q1" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="n">
+      <c r="D2" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="E2" s="14" t="n">
+      <c r="E2" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="F2" s="14" t="n">
+      <c r="F2" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="G2" s="14" t="n">
+      <c r="G2" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="H2" s="14" t="n">
+      <c r="H2" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="I2" s="15" t="n">
+      <c r="I2" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="J2" s="15" t="n">
+      <c r="J2" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="K2" s="15" t="n">
+      <c r="K2" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="L2" s="15" t="n">
+      <c r="L2" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="M2" s="15" t="n">
+      <c r="M2" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="O2" s="0"/>
-      <c r="P2" s="0"/>
-      <c r="Q2" s="0"/>
-      <c r="R2" s="0"/>
-      <c r="S2" s="0"/>
-      <c r="T2" s="0"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K3" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="12" t="n">
+      <c r="A3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="10" t="n">
         <v>1</v>
       </c>
       <c r="N3" s="16" t="n">
         <v>1</v>
       </c>
+      <c r="O3" s="17" t="n">
+        <v>0.926666666666667</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="12" t="n">
+      <c r="A4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="10" t="n">
         <v>1</v>
       </c>
       <c r="N4" s="16" t="n">
         <v>0.75</v>
       </c>
+      <c r="O4" s="17" t="n">
+        <v>0.868098891730605</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="12" t="n">
+      <c r="A5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="10" t="n">
         <v>1</v>
       </c>
       <c r="N5" s="16" t="n">
         <v>0.75</v>
       </c>
+      <c r="O5" s="17" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" s="12" t="n">
+      <c r="A6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" s="10" t="n">
         <v>0</v>
       </c>
       <c r="N6" s="16" t="n">
         <v>0.75</v>
       </c>
+      <c r="O6" s="17" t="n">
+        <v>0.8793571774</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="12" t="n">
+      <c r="A7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="10" t="n">
         <v>1</v>
       </c>
       <c r="N7" s="16" t="n">
         <v>0.7</v>
       </c>
+      <c r="O7" s="17" t="n">
+        <v>0.7290281948</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" s="12" t="n">
+      <c r="A8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="10" t="n">
         <v>1</v>
       </c>
       <c r="N8" s="16" t="n">
         <v>0.666666666666667</v>
       </c>
+      <c r="O8" s="17" t="n">
+        <v>0.769617224880383</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="12" t="n">
+      <c r="A9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="10" t="n">
         <v>1</v>
       </c>
       <c r="N9" s="16" t="n">
         <v>0.666666666666667</v>
       </c>
+      <c r="O9" s="17" t="n">
+        <v>0.832156862745098</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="12" t="n">
+      <c r="A10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="10" t="n">
         <v>1</v>
       </c>
       <c r="N10" s="16" t="n">
         <v>0.666666666666667</v>
       </c>
+      <c r="O10" s="17" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K11" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="12" t="n">
+      <c r="A11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="10" t="n">
         <v>0</v>
       </c>
       <c r="N11" s="16" t="n">
         <v>0.6</v>
       </c>
+      <c r="O11" s="17" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="P11" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K12" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" s="12" t="n">
+      <c r="A12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="10" t="n">
         <v>1</v>
       </c>
       <c r="N12" s="16" t="n">
         <v>0.6</v>
       </c>
+      <c r="O12" s="17" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="I13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="12" t="n">
+      <c r="A13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="10" t="n">
         <v>0</v>
       </c>
       <c r="N13" s="16" t="n">
         <v>0.6</v>
       </c>
+      <c r="O13" s="17" t="n">
+        <v>0.8333333333</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="12" t="n">
+      <c r="A14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="10" t="n">
         <v>0</v>
       </c>
       <c r="N14" s="16" t="n">
         <v>0.583333333333333</v>
       </c>
+      <c r="O14" s="17" t="n">
+        <v>0.968508150351384</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="I15" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K15" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="12" t="n">
+      <c r="A15" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="10" t="n">
         <v>1</v>
       </c>
       <c r="N15" s="16" t="n">
         <v>0.5</v>
       </c>
+      <c r="O15" s="17" t="n">
+        <v>0.819233046384076</v>
+      </c>
+      <c r="P15" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K16" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="12" t="n">
+      <c r="A16" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="10" t="n">
         <v>1</v>
       </c>
       <c r="N16" s="16" t="n">
         <v>0.5</v>
       </c>
+      <c r="O16" s="17" t="n">
+        <v>0.723595896856766</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="I17" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K17" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="12" t="n">
+      <c r="A17" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="10" t="n">
         <v>0</v>
       </c>
       <c r="N17" s="16" t="n">
         <v>0.5</v>
       </c>
+      <c r="O17" s="17" t="n">
+        <v>0.9957608393</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="12" t="n">
+      <c r="A18" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="10" t="n">
         <v>1</v>
       </c>
       <c r="N18" s="16" t="n">
         <v>0.416666666666667</v>
       </c>
+      <c r="O18" s="17" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" s="12" t="n">
+      <c r="A19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" s="10" t="n">
         <v>0</v>
       </c>
       <c r="N19" s="16" t="n">
         <v>0.416666666666667</v>
       </c>
+      <c r="O19" s="17" t="n">
+        <v>0.928678804855276</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K20" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" s="12" t="n">
+      <c r="A20" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" s="10" t="n">
         <v>1</v>
       </c>
       <c r="N20" s="16" t="n">
         <v>0.4</v>
       </c>
+      <c r="O20" s="17" t="n">
+        <v>0.993295596413574</v>
+      </c>
+      <c r="P20" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="I21" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K21" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="12" t="n">
+      <c r="A21" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="10" t="n">
         <v>0</v>
       </c>
       <c r="N21" s="16" t="n">
         <v>0.4</v>
       </c>
+      <c r="O21" s="17" t="n">
+        <v>0.969</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="12" t="n">
+      <c r="A22" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="10" t="n">
         <v>0</v>
       </c>
       <c r="N22" s="16" t="n">
         <v>0.333333333333333</v>
       </c>
+      <c r="O22" s="17" t="n">
+        <v>0.9371841621</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q22" s="0" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="12" t="n">
+      <c r="A23" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="10" t="n">
         <v>0</v>
       </c>
       <c r="N23" s="16" t="n">
         <v>0.25</v>
       </c>
+      <c r="O23" s="17" t="n">
+        <v>0.8591038407</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q23" s="0" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="12" t="n">
+      <c r="A24" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="10" t="n">
         <v>0</v>
       </c>
       <c r="N24" s="16" t="n">
         <v>0.166666666666667</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>162</v>
-      </c>
+      <c r="O24" s="17" t="n">
+        <v>0.866650225307514</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0"/>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
+      <c r="M25" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>56</v>
+        <v>175</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>163</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>164</v>
-      </c>
+      <c r="A29" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0"/>
+      <c r="I33" s="0"/>
+      <c r="J33" s="0"/>
+      <c r="K33" s="0"/>
+      <c r="L33" s="0"/>
+      <c r="M33" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N24"/>
+  <autoFilter ref="A1:Q25"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/resultsTables.xlsx
+++ b/resultsTables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Table5" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="188">
   <si>
     <t xml:space="preserve">filename</t>
   </si>
@@ -129,7 +129,7 @@
     <t xml:space="preserve">median build time [s]</t>
   </si>
   <si>
-    <t xml:space="preserve">average build time normalized</t>
+    <t xml:space="preserve">median build time normalized</t>
   </si>
   <si>
     <t xml:space="preserve">LEGEND</t>
@@ -252,87 +252,96 @@
     <t xml:space="preserve">avg conditions / rule</t>
   </si>
   <si>
+    <t xml:space="preserve">avg conditions / model (macro)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg conditions / model (micro)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: SBRL_results/stats.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computed by: evalSBRL_QCBA.R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reduction in model size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only IDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDS+QCBA #5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDS+QCBA #6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/7/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13/8/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/9/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: IDS_results/stats.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computed by: evalIDS_QCBA.R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">size increase without literal pruning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMAR+QCBA #5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPAR+QCBA #5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOIL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOIL2+QCBA #5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRM+QCBA #5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/2/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/5/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/5/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/4/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value (accuracy difference)</t>
+  </si>
+  <si>
     <t xml:space="preserve">avg conditions / model</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: SBRL_results/stats.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Computed by: evalSBRL_QCBA.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">only IDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDS+QCBA #5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDS+QCBA #6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/7/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13/8/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/9/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avg build time normalized</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source: IDS_results/stats.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Computed by: evalIDS_QCBA.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMAR+QCBA #5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPAR+QCBA #5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOIL2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOIL2+QCBA #5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRM+QCBA #5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/2/10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15/5/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/5/3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/4/4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value (accuracy difference)</t>
-  </si>
-  <si>
     <t xml:space="preserve">median build time norm</t>
   </si>
   <si>
@@ -366,10 +375,10 @@
     <t xml:space="preserve">mean build time norm</t>
   </si>
   <si>
-    <t xml:space="preserve">avg conditions / model (macro)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avg conditions / model (micro)</t>
+    <t xml:space="preserve">Source: QCBA_eval_PRM_FOIL2_CMAR_CPAR/stats.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computed by: evalCPAR_CMAR_PRM_FOIL2.R</t>
   </si>
   <si>
     <t xml:space="preserve">Number of wins for QCBA#5 run after CBA</t>
@@ -390,10 +399,28 @@
     <t xml:space="preserve">FURIA</t>
   </si>
   <si>
+    <t xml:space="preserve">“9/1/1”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“12/2/8”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“10/3/8”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“12/5/5”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“6/4/11”</t>
+  </si>
+  <si>
     <t xml:space="preserve">Source: WEKA_Results/stats.csv</t>
   </si>
   <si>
     <t xml:space="preserve">WEKA results (RIPPER,PART,FURIA) computed by: evalWEKA.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBRL results computed with evalSBRL.sh</t>
   </si>
   <si>
     <t xml:space="preserve">Note: some rows and columns were excluded.</t>
@@ -577,10 +604,10 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="168" formatCode="0.00"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0%"/>
+    <numFmt numFmtId="169" formatCode="0%"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -612,6 +639,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -674,7 +708,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -695,7 +729,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -703,7 +737,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -711,23 +745,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -739,15 +769,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -851,8 +889,8 @@
   </sheetPr>
   <dimension ref="A2:I42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1167,31 +1205,31 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>0.81</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>0.81</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>0.81</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>0.81</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <v>0.81</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="1" t="n">
         <v>0.81</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="1" t="n">
         <v>0.81</v>
       </c>
     </row>
@@ -1199,28 +1237,28 @@
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>0.82</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>0.82</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>0.82</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>0.83</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <v>0.82</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="1" t="n">
         <v>0.82</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="1" t="n">
         <v>0.82</v>
       </c>
     </row>
@@ -1258,25 +1296,25 @@
       <c r="B15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>0.581</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>0.581</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>0.623</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <v>0.816</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="1" t="n">
         <v>0.233</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="1" t="n">
         <v>0.087</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="1" t="n">
         <v>0.233</v>
       </c>
     </row>
@@ -1284,28 +1322,28 @@
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>84.2</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>91.8</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>91.8</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>91.8</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="1" t="n">
         <v>91.8</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="1" t="n">
         <v>65.9</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="1" t="n">
         <v>47.8</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="1" t="n">
         <v>65.5</v>
       </c>
     </row>
@@ -1313,28 +1351,28 @@
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>2.8</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>2.8</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>2.8</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <v>2.8</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="1" t="n">
         <v>2.8</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="1" t="n">
         <v>2.8</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="1" t="n">
         <v>2.8</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17" s="1" t="n">
         <v>2.8</v>
       </c>
     </row>
@@ -1342,28 +1380,28 @@
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>235.3</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>258.7</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>258.7</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <v>258.7</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="1" t="n">
         <v>258.7</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="1" t="n">
         <v>183.6</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18" s="1" t="n">
         <v>182.4</v>
       </c>
     </row>
@@ -1371,28 +1409,28 @@
       <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>6.2</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <v>4.7</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="1" t="n">
         <v>4.8</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19" s="1" t="n">
         <v>5.2</v>
       </c>
     </row>
@@ -1400,28 +1438,28 @@
       <c r="A20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="0" t="n">
+      <c r="B20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>0.04</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="1" t="n">
         <v>0.76</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20" s="1" t="n">
         <v>0.77</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="1" t="n">
         <v>0.81</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20" s="1" t="n">
         <v>0.83</v>
       </c>
     </row>
@@ -1552,10 +1590,6 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1573,13 +1607,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="60.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="27.2"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -1605,22 +1644,22 @@
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1631,7 +1670,7 @@
       <c r="C3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>68</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1645,14 +1684,14 @@
       <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C4" s="8" t="n">
         <v>0.03054</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.24756</v>
+        <v>0.248</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>72</v>
@@ -1674,7 +1713,7 @@
       <c r="C5" s="1" t="n">
         <v>3.7</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="7" t="n">
         <v>3.4</v>
       </c>
       <c r="E5" s="1" t="n">
@@ -1697,7 +1736,7 @@
       <c r="C6" s="1" t="n">
         <v>0.7</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="7" t="n">
         <v>0.6</v>
       </c>
       <c r="E6" s="1" t="n">
@@ -1710,95 +1749,142 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="7" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="8" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="1" t="n">
         <v>3.8</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C8" s="1" t="n">
         <v>2.6</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D8" s="7" t="n">
         <v>2.4</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E8" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F8" s="1" t="n">
         <v>3.8</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G8" s="1" t="n">
         <v>3.4</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="9" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C9" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D9" s="7" t="n">
         <v>0.1</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E9" s="1" t="n">
         <v>24.9</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F9" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G9" s="1" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="n">
+      <c r="B10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="n">
         <v>0.17</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D10" s="7" t="n">
         <v>0.17</v>
       </c>
-      <c r="E9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="E10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="10" t="n">
+        <f aca="false">1-C7/$B7</f>
+        <v>0.324324324324324</v>
+      </c>
+      <c r="D17" s="10" t="n">
+        <f aca="false">1-D7/$B7</f>
+        <v>0.405405405405405</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="n">
+        <f aca="false">1-F7/$E7</f>
+        <v>0.25</v>
+      </c>
+      <c r="G17" s="10" t="n">
+        <f aca="false">1-G7/$E7</f>
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1816,14 +1902,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="33.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="18.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22.74"/>
@@ -1832,23 +1919,23 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="9"/>
+      <c r="C1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -1888,24 +1975,24 @@
         <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>84</v>
+      <c r="B5" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>0.00087</v>
@@ -1961,85 +2048,121 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="7" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="9" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="7" t="n">
         <v>60.1</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C9" s="7" t="n">
         <v>12.2</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D9" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E9" s="7" t="n">
         <v>8.9</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F9" s="7" t="n">
         <v>6.7</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>1.5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>1</v>
+        <v>21.1</v>
       </c>
       <c r="C10" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="n">
         <v>0.13</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D11" s="1" t="n">
         <v>0.06</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E11" s="1" t="n">
         <v>0.13</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F11" s="1" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="14" t="n">
+        <f aca="false">C8/D8</f>
+        <v>1.35211267605634</v>
+      </c>
+      <c r="E17" s="14" t="n">
+        <f aca="false">E8/F8</f>
+        <v>1.35849056603774</v>
       </c>
     </row>
   </sheetData>
@@ -2062,38 +2185,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.26"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2129,22 +2255,22 @@
       <c r="A3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>96</v>
+      <c r="C3" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>0</v>
@@ -2231,7 +2357,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>0</v>
@@ -2289,7 +2415,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>1</v>
@@ -2318,36 +2444,36 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>1</v>
@@ -2374,38 +2500,38 @@
         <v>112.99</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="1" t="n">
+    <row r="12" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="13" t="n">
         <v>1462</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="13" t="n">
         <v>302.6</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="13" t="n">
         <v>178.9</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="13" t="n">
         <v>126.7</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="13" t="n">
         <v>263.5</v>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="13" t="n">
         <v>176.7</v>
       </c>
-      <c r="H12" s="1" t="n">
+      <c r="H12" s="13" t="n">
         <v>161.4</v>
       </c>
-      <c r="I12" s="1" t="n">
+      <c r="I12" s="13" t="n">
         <v>125.4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>1336.2</v>
@@ -2430,6 +2556,46 @@
       </c>
       <c r="I13" s="1" t="n">
         <v>179.8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="15" t="n">
+        <f aca="false">1-C12/B12</f>
+        <v>0.793023255813954</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15" t="n">
+        <f aca="false">1-E12/D12</f>
+        <v>0.291783119060928</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15" t="n">
+        <f aca="false">1-G12/F12</f>
+        <v>0.329411764705882</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15" t="n">
+        <f aca="false">1-I12/H12</f>
+        <v>0.223048327137546</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2448,10 +2614,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2461,92 +2627,120 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="6" t="n">
-        <v>39814</v>
-      </c>
-      <c r="C3" s="6" t="n">
-        <v>41123</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>40393</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>41034</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>39025</v>
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="16" t="n">
         <v>0.05248</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C5" s="16" t="n">
         <v>0.39989</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D5" s="16" t="n">
         <v>0.51199</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E5" s="16" t="n">
         <v>0.11789</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F5" s="16" t="n">
         <v>0.21685</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="A12" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2566,72 +2760,72 @@
   </sheetPr>
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S26" activeCellId="0" sqref="S26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.38"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="9" style="10" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="9" style="17" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="J1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="E1" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="F1" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="G1" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="H1" s="7" t="s">
         <v>139</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B2" s="13" t="n">
         <v>1</v>
@@ -2654,29 +2848,29 @@
       <c r="H2" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="I2" s="14" t="n">
+      <c r="I2" s="18" t="n">
         <v>12</v>
       </c>
-      <c r="J2" s="14" t="n">
+      <c r="J2" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="K2" s="14" t="n">
+      <c r="K2" s="18" t="n">
         <v>9</v>
       </c>
-      <c r="L2" s="14" t="n">
+      <c r="L2" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="M2" s="14" t="n">
+      <c r="M2" s="18" t="n">
         <v>11</v>
       </c>
       <c r="N2" s="13"/>
-      <c r="O2" s="15"/>
+      <c r="O2" s="19"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1</v>
@@ -2697,34 +2891,34 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I3" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K3" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="17" t="n">
+        <v>82</v>
+      </c>
+      <c r="I3" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="19" t="n">
         <v>0.926666666666667</v>
       </c>
-      <c r="P3" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>143</v>
+      <c r="P3" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -2732,7 +2926,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>1</v>
@@ -2755,37 +2949,37 @@
       <c r="H4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="16" t="n">
+      <c r="I4" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="14" t="n">
         <v>0.75</v>
       </c>
-      <c r="O4" s="17" t="n">
+      <c r="O4" s="19" t="n">
         <v>0.868098891730605</v>
       </c>
-      <c r="P4" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>145</v>
+      <c r="P4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0</v>
@@ -2808,37 +3002,37 @@
       <c r="H5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="16" t="n">
+      <c r="I5" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="14" t="n">
         <v>0.75</v>
       </c>
-      <c r="O5" s="17" t="n">
+      <c r="O5" s="19" t="n">
         <v>0.762</v>
       </c>
-      <c r="P5" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>148</v>
+      <c r="P5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>1</v>
@@ -2859,39 +3053,39 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="16" t="n">
+        <v>82</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="14" t="n">
         <v>0.75</v>
       </c>
-      <c r="O6" s="17" t="n">
+      <c r="O6" s="19" t="n">
         <v>0.8793571774</v>
       </c>
-      <c r="P6" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>133</v>
+      <c r="P6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>1</v>
@@ -2912,39 +3106,39 @@
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="16" t="n">
+        <v>82</v>
+      </c>
+      <c r="I7" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="14" t="n">
         <v>0.7</v>
       </c>
-      <c r="O7" s="17" t="n">
+      <c r="O7" s="19" t="n">
         <v>0.7290281948</v>
       </c>
-      <c r="P7" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q7" s="0" t="s">
-        <v>134</v>
+      <c r="P7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>1</v>
@@ -2967,37 +3161,37 @@
       <c r="H8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="16" t="n">
+      <c r="I8" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="14" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="O8" s="17" t="n">
+      <c r="O8" s="19" t="n">
         <v>0.769617224880383</v>
       </c>
-      <c r="P8" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q8" s="0" t="s">
-        <v>124</v>
+      <c r="P8" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>1</v>
@@ -3020,37 +3214,37 @@
       <c r="H9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="16" t="n">
+      <c r="I9" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="14" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="O9" s="17" t="n">
+      <c r="O9" s="19" t="n">
         <v>0.832156862745098</v>
       </c>
-      <c r="P9" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q9" s="0" t="s">
-        <v>145</v>
+      <c r="P9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>1</v>
@@ -3073,37 +3267,37 @@
       <c r="H10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="16" t="n">
+      <c r="I10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="14" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="O10" s="17" t="n">
+      <c r="O10" s="19" t="n">
         <v>0.793</v>
       </c>
-      <c r="P10" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q10" s="0" t="s">
-        <v>131</v>
+      <c r="P10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>1</v>
@@ -3124,39 +3318,39 @@
         <v>0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K11" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="16" t="n">
+        <v>82</v>
+      </c>
+      <c r="I11" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="14" t="n">
         <v>0.6</v>
       </c>
-      <c r="O11" s="17" t="n">
+      <c r="O11" s="19" t="n">
         <v>0.96</v>
       </c>
-      <c r="P11" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q11" s="0" t="s">
-        <v>157</v>
+      <c r="P11" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>0</v>
@@ -3177,39 +3371,39 @@
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K12" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="16" t="n">
+        <v>82</v>
+      </c>
+      <c r="I12" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="14" t="n">
         <v>0.6</v>
       </c>
-      <c r="O12" s="17" t="n">
+      <c r="O12" s="19" t="n">
         <v>0.866</v>
       </c>
-      <c r="P12" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q12" s="0" t="s">
-        <v>131</v>
+      <c r="P12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>1</v>
@@ -3230,39 +3424,39 @@
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K13" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="16" t="n">
+        <v>82</v>
+      </c>
+      <c r="I13" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="14" t="n">
         <v>0.6</v>
       </c>
-      <c r="O13" s="17" t="n">
+      <c r="O13" s="19" t="n">
         <v>0.8333333333</v>
       </c>
-      <c r="P13" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q13" s="0" t="s">
-        <v>133</v>
+      <c r="P13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>0</v>
@@ -3285,37 +3479,37 @@
       <c r="H14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="16" t="n">
+      <c r="I14" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="14" t="n">
         <v>0.583333333333333</v>
       </c>
-      <c r="O14" s="17" t="n">
+      <c r="O14" s="19" t="n">
         <v>0.968508150351384</v>
       </c>
-      <c r="P14" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q14" s="0" t="s">
-        <v>145</v>
+      <c r="P14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>0</v>
@@ -3336,39 +3530,39 @@
         <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K15" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" s="16" t="n">
+        <v>82</v>
+      </c>
+      <c r="I15" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="14" t="n">
         <v>0.5</v>
       </c>
-      <c r="O15" s="17" t="n">
+      <c r="O15" s="19" t="n">
         <v>0.819233046384076</v>
       </c>
-      <c r="P15" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q15" s="0" t="s">
-        <v>163</v>
+      <c r="P15" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>0</v>
@@ -3389,39 +3583,39 @@
         <v>1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I16" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K16" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" s="16" t="n">
+        <v>82</v>
+      </c>
+      <c r="I16" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="14" t="n">
         <v>0.5</v>
       </c>
-      <c r="O16" s="17" t="n">
+      <c r="O16" s="19" t="n">
         <v>0.723595896856766</v>
       </c>
-      <c r="P16" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q16" s="0" t="s">
-        <v>148</v>
+      <c r="P16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>1</v>
@@ -3442,39 +3636,39 @@
         <v>1</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I17" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="16" t="n">
+        <v>82</v>
+      </c>
+      <c r="I17" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="14" t="n">
         <v>0.5</v>
       </c>
-      <c r="O17" s="17" t="n">
+      <c r="O17" s="19" t="n">
         <v>0.9957608393</v>
       </c>
-      <c r="P17" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q17" s="0" t="s">
-        <v>133</v>
+      <c r="P17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>0</v>
@@ -3497,37 +3691,37 @@
       <c r="H18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I18" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" s="16" t="n">
+      <c r="I18" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" s="14" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="O18" s="17" t="n">
+      <c r="O18" s="19" t="n">
         <v>0.833333333333333</v>
       </c>
-      <c r="P18" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q18" s="0" t="s">
-        <v>167</v>
+      <c r="P18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>0</v>
@@ -3550,90 +3744,90 @@
       <c r="H19" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I19" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="16" t="n">
+      <c r="I19" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="14" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="O19" s="17" t="n">
+      <c r="O19" s="19" t="n">
         <v>0.928678804855276</v>
       </c>
-      <c r="P19" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q19" s="0" t="s">
-        <v>169</v>
+      <c r="P19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B20" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="I20" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K20" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" s="16" t="n">
+      <c r="A20" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="K20" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="14" t="n">
         <v>0.4</v>
       </c>
-      <c r="O20" s="17" t="n">
+      <c r="O20" s="19" t="n">
         <v>0.993295596413574</v>
       </c>
-      <c r="P20" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q20" s="0" t="s">
-        <v>163</v>
+      <c r="P20" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>0</v>
@@ -3654,39 +3848,39 @@
         <v>1</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="16" t="n">
+        <v>82</v>
+      </c>
+      <c r="I21" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="K21" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="14" t="n">
         <v>0.4</v>
       </c>
-      <c r="O21" s="17" t="n">
+      <c r="O21" s="19" t="n">
         <v>0.969</v>
       </c>
-      <c r="P21" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q21" s="0" t="s">
-        <v>131</v>
+      <c r="P21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>0</v>
@@ -3709,37 +3903,37 @@
       <c r="H22" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="16" t="n">
+      <c r="I22" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="14" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="O22" s="17" t="n">
+      <c r="O22" s="19" t="n">
         <v>0.9371841621</v>
       </c>
-      <c r="P22" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q22" s="0" t="s">
-        <v>134</v>
+      <c r="P22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>0</v>
@@ -3762,37 +3956,37 @@
       <c r="H23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I23" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="16" t="n">
+      <c r="I23" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="14" t="n">
         <v>0.25</v>
       </c>
-      <c r="O23" s="17" t="n">
+      <c r="O23" s="19" t="n">
         <v>0.8591038407</v>
       </c>
-      <c r="P23" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q23" s="0" t="s">
-        <v>132</v>
+      <c r="P23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>0</v>
@@ -3815,48 +4009,47 @@
       <c r="H24" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I24" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="16" t="n">
+      <c r="I24" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="14" t="n">
         <v>0.166666666666667</v>
       </c>
-      <c r="O24" s="17" t="n">
+      <c r="O24" s="19" t="n">
         <v>0.866650225307514</v>
       </c>
-      <c r="P24" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q24" s="0" t="s">
-        <v>145</v>
+      <c r="P24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0"/>
-      <c r="I25" s="0"/>
-      <c r="J25" s="0"/>
-      <c r="K25" s="0"/>
-      <c r="L25" s="0"/>
-      <c r="M25" s="0"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3866,21 +4059,20 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0"/>
-      <c r="I33" s="0"/>
-      <c r="J33" s="0"/>
-      <c r="K33" s="0"/>
-      <c r="L33" s="0"/>
-      <c r="M33" s="0"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q25"/>
